--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\k-mean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\k-mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81371E6D-C289-4B9B-AF76-271E588A70FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4E872-4D70-4E3D-BEAF-400A518402F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="8712" windowWidth="21480" windowHeight="12924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -52,29 +43,18 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,36 +98,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,103 +390,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>-1</v>
       </c>
-      <c r="C4" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-5</v>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\k-mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4E872-4D70-4E3D-BEAF-400A518402F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E841A41-F757-4FFA-BD9C-D405FA7B7EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="8712" windowWidth="21480" windowHeight="12924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -43,6 +44,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -390,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -417,49 +421,135 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>-3</v>
       </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
+      <c r="G2" s="1">
+        <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>-1</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB7BEE4-FE88-4715-A6E8-BBEB0F798A3A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\k-mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E841A41-F757-4FFA-BD9C-D405FA7B7EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F3FCF-E593-41DB-B9E0-F7AE7D8D02D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -47,12 +49,21 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,16 +113,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,78 +427,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E2" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-5</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>-1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
         <v>5</v>
       </c>
     </row>
@@ -479,77 +510,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB7BEE4-FE88-4715-A6E8-BBEB0F798A3A}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E33D24-0C46-4E66-82DA-6F118722B2E3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>-2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
         <v>-5</v>
       </c>
-      <c r="C2" s="1">
-        <v>-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
         <v>-2</v>
       </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="G3">
+        <v>-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556509FA-48AA-40F3-9A8A-4DB4EAD3BFD0}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-40</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>